--- a/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
+++ b/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\PEUDfSbQL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="20115" windowHeight="11310"/>
   </bookViews>
@@ -12,12 +17,12 @@
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="PEUDfSbQL" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="111">
   <si>
     <t>Source:</t>
   </si>
@@ -247,12 +252,6 @@
     <t>see calculation 2</t>
   </si>
   <si>
-    <t>Note 1:</t>
-  </si>
-  <si>
-    <t>Note 2:</t>
-  </si>
-  <si>
     <t>Cells colors in yellow are centerpoints of ranges given on the</t>
   </si>
   <si>
@@ -341,12 +340,27 @@
   </si>
   <si>
     <t>Rural Residential</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>This variable reflects the difference in energy use between</t>
+  </si>
+  <si>
+    <t>rebate-qualifying components and the component</t>
+  </si>
+  <si>
+    <t>standard.</t>
+  </si>
+  <si>
+    <t>Percent Difference in E Use (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -437,7 +451,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -510,6 +524,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -521,6 +538,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -569,7 +589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,7 +624,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,9 +833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -824,7 +846,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -842,58 +864,72 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>76</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>95</v>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -940,7 +978,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -960,7 +998,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -979,7 +1017,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="12">
@@ -995,7 +1033,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1015,7 +1053,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1033,7 +1071,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1053,7 +1091,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -1071,7 +1109,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -1091,7 +1129,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1109,7 +1147,7 @@
     </row>
     <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11">
@@ -1129,7 +1167,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -1151,7 +1189,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -1173,7 +1211,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11">
@@ -1422,17 +1460,17 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="29">
         <f>AVERAGE(0.3,0.72)</f>
         <v>0.51</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>23</v>
@@ -1440,10 +1478,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>79</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>81</v>
       </c>
       <c r="C33" s="29">
         <f>AVERAGE(0.4,0.55)</f>
@@ -1454,7 +1492,7 @@
         <v>0.47500000000000003</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>24</v>
@@ -1462,10 +1500,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C34" s="32">
         <v>0.3</v>
@@ -1474,7 +1512,7 @@
         <v>0.3</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F34" s="31" t="s">
         <v>24</v>
@@ -1482,7 +1520,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>46</v>
@@ -1504,7 +1542,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>47</v>
@@ -1524,7 +1562,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>48</v>
@@ -1546,7 +1584,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>49</v>
@@ -1566,7 +1604,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="12">
@@ -1619,7 +1657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1630,50 +1670,50 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="20">
         <v>75</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="20">
         <v>53</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="20">
         <f>0.3*B2</f>
         <v>22.5</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,7 +1727,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1755,20 +1795,23 @@
     <col min="4" max="4" width="15.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>110</v>
+      </c>
       <c r="B1" s="41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="40">
         <f>-Data!C4</f>
@@ -1785,7 +1828,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="40">
         <f>-Data!C12</f>
@@ -1802,7 +1845,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="40">
         <f>-Data!C16</f>
@@ -1853,7 +1896,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="40">
         <f>-Data!C39</f>
@@ -2126,13 +2169,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE005B16-5CD2-41FA-B14F-F30ABFDA7DBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2144419E-86CA-444B-BAAC-D67AE51E2A0A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6947DF-FA55-4445-9078-1D662DCD0884}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F677AE20-FA5B-4B36-9A4F-F52EA39D27C8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1ADCE1C-93FC-45A6-A44D-0B3ECD4A7760}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E5B3B3-B9AA-469D-9487-A3D9CA9F7965}"/>
 </file>